--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -479,6 +480,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -627,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,16 +712,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -950,7 +946,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,13 +1003,13 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
@@ -1023,13 +1019,13 @@
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="b">
@@ -1045,7 +1041,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1067,7 +1063,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1089,7 +1085,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1111,7 +1107,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1133,7 +1129,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1155,7 +1151,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1177,7 +1173,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1199,7 +1195,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1221,7 +1217,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1243,7 +1239,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1265,7 +1261,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1287,7 +1283,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1306,842 +1302,842 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="25"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="25"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="25"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="25"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="25"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="25"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="27"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="27"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="25"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="25"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="27"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="27"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="27"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="27"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="27"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="27"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="27"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="27"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="27"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="27"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="27"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="27"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="27"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="27"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="27"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="27"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="27"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="27"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="27"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="27"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="25"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="25"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="27"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="27"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="27"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="27"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="27"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="27"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="25"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="25"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="27"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="27"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="27"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="27"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="27"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="27"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="27"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="27"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="27"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="27"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="25"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="25"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="27"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="27"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="27"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="27"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="27"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="27"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="27"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="27"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="27"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="27"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="25"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="25"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="27"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="27"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="27"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="27"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="27"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="27"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="27"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="27"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="27"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="27"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="25"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="25"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="27"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="27"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="27"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="27"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="27"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="27"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="27"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="27"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="27"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="27"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="25"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="25"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="27"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="27"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="27"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="27"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="27"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="27"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="27"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="27"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="27"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="27"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="25"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="25"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="27"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="27"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="27"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="27"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="27"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="27"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="27"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="27"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="27"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="27"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="25"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="25"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="27"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="27"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="27"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="27"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="27"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="27"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="27"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="27"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="27"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="27"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="25"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="25"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="27"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="27"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="27"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="27"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="27"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="27"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="27"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="27"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="27"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="27"/>
+      <c r="B169" s="25"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="25"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="25"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="27"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="27"/>
+      <c r="B173" s="25"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="27"/>
+      <c r="B174" s="25"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="27"/>
+      <c r="B175" s="25"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="27"/>
+      <c r="B176" s="25"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="27"/>
+      <c r="B177" s="25"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="27"/>
+      <c r="B178" s="25"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="27"/>
+      <c r="B179" s="25"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="27"/>
+      <c r="B180" s="25"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="27"/>
+      <c r="B181" s="25"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
@@ -2165,7 +2161,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="A2:D13 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2356,7 +2352,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2378,7 +2374,7 @@
       <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2392,7 +2388,7 @@
       <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="31" t="n">
+      <c r="D2" s="29" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
         <v>46002</v>
       </c>
@@ -2416,7 +2412,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:D13 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2427,7 +2423,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2454,10 +2450,10 @@
       <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2475,7 +2471,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="21" t="n">
         <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
@@ -2488,11 +2484,11 @@
       <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="33" t="b">
+      <c r="J2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="b">
+      <c r="K2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2516,7 +2512,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:D13 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2526,7 +2522,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2553,10 +2549,10 @@
       <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2574,7 +2570,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="21" t="n">
         <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
@@ -2587,11 +2583,11 @@
       <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="33" t="b">
+      <c r="J2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="b">
+      <c r="K2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2615,7 +2611,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="A2:D13 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,7 +2621,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2646,10 +2642,10 @@
       <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2667,18 +2663,18 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="21" t="n">
         <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="33" t="b">
+      <c r="H2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="33" t="b">
+      <c r="I2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2705,7 +2701,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="A2:D13 H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2715,7 +2711,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2776,7 +2772,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2786,7 +2782,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2847,7 +2843,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="A2:D13 J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2859,7 +2855,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2926,6 +2922,65 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2938,7 +2993,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3032,7 +3087,7 @@
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
@@ -3070,15 +3125,15 @@
         <f aca="false">H3 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
@@ -3116,15 +3171,15 @@
         <f aca="false">H4 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -3162,15 +3217,15 @@
         <f aca="false">H5 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -3208,15 +3263,15 @@
         <f aca="false">H6 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -3254,15 +3309,15 @@
         <f aca="false">H7 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -3407,7 +3462,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3531,57 +3586,46 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="20"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="20"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
@@ -3613,7 +3657,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3639,10 +3683,10 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="4" t="b">
@@ -3671,10 +3715,10 @@
       <c r="D2" s="13" t="n">
         <v>45733</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="22" t="n">
+      <c r="F2" s="18" t="n">
         <v>0.25</v>
       </c>
       <c r="G2" s="2" t="b">
@@ -3703,10 +3747,10 @@
       <c r="D3" s="13" t="n">
         <v>45741</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="18" t="n">
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
@@ -3735,10 +3779,10 @@
       <c r="D4" s="13" t="n">
         <v>45738</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="18" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" s="2" t="b">
@@ -3767,10 +3811,10 @@
       <c r="D5" s="13" t="n">
         <v>45748</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="18" t="n">
         <v>2.25</v>
       </c>
       <c r="G5" s="2" t="b">
@@ -3799,10 +3843,10 @@
       <c r="D6" s="13" t="n">
         <v>45713</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="18" t="n">
         <v>0.25</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="G6" s="2" t="b">
@@ -3831,10 +3875,10 @@
       <c r="D7" s="13" t="n">
         <v>45719</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="18" t="n">
         <v>2.5</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="18" t="n">
         <v>2.75</v>
       </c>
       <c r="G7" s="2" t="b">
@@ -3853,525 +3897,525 @@
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="I47" s="24"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="I48" s="24"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="I51" s="24"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="I52" s="24"/>
+      <c r="I52" s="22"/>
       <c r="J52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="I53" s="24"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="I54" s="24"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="I55" s="24"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="I56" s="24"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="I57" s="24"/>
+      <c r="I57" s="22"/>
       <c r="J57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="I58" s="24"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="I59" s="24"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="I60" s="24"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="I61" s="24"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="24"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="24"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="24"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="24"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="24"/>
+      <c r="I66" s="22"/>
       <c r="J66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="24"/>
+      <c r="I67" s="22"/>
       <c r="J67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="24"/>
+      <c r="I68" s="22"/>
       <c r="J68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="24"/>
+      <c r="I69" s="22"/>
       <c r="J69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="24"/>
+      <c r="I70" s="22"/>
       <c r="J70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="24"/>
+      <c r="I71" s="22"/>
       <c r="J71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="24"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="13"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="24"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="24"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="24"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="24"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="24"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="24"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="24"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="24"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="24"/>
+      <c r="I81" s="22"/>
       <c r="J81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="24"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="24"/>
+      <c r="I83" s="22"/>
       <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="24"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="24"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="24"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="24"/>
+      <c r="I87" s="22"/>
       <c r="J87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="24"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="13"/>
     </row>
   </sheetData>
@@ -4404,7 +4448,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:D13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4428,10 +4472,10 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4799,7 +4843,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:D13 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4818,70 +4862,70 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -5258,7 +5302,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2:D13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5282,36 +5326,36 @@
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,7 +5697,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:D13 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5672,16 +5716,16 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="13"/>
@@ -5850,7 +5894,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A2:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5876,13 +5920,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="n">
+      <c r="B2" s="24" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="24" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -5891,13 +5935,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26" t="n">
+      <c r="B3" s="24" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="24" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -5906,13 +5950,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="28" t="n">
+      <c r="B4" s="26" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="26" t="n">
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -5921,13 +5965,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="28" t="n">
+      <c r="B5" s="26" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="26" t="n">
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -5936,13 +5980,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28" t="n">
+      <c r="B6" s="26" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="26" t="n">
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -5951,13 +5995,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28" t="n">
+      <c r="B7" s="26" t="n">
         <v>45796</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="26" t="n">
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="b">
@@ -5966,13 +6010,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="26" t="n">
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -5981,13 +6025,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="26" t="n">
         <v>45856</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="26" t="n">
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -5996,7 +6040,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="13" t="n">
@@ -6011,7 +6055,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="13" t="n">
@@ -6026,7 +6070,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="13" t="n">
@@ -6041,7 +6085,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="13" t="n">

--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -241,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -263,8 +205,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -979,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$524, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -996,1355 +994,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F181"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="23"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="23"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="23"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="23"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="23"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="23"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="23"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="23"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="23"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="25"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="23"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="23"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="25"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="25"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="25"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="25"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="25"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="25"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="23"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="25"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="25"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="25"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="25"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="25"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="25"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="25"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="25"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="25"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="23"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="23"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="25"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="25"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="25"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="25"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="25"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="25"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="25"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="25"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="25"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="23"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="23"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="25"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="25"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="25"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="25"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="25"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="25"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="25"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="25"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="25"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="25"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="23"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="23"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="25"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="25"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="25"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="25"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="25"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="25"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="25"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="25"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="25"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="25"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="23"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="23"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="25"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="25"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="25"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="25"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="25"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="25"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="25"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="25"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="25"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="25"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="23"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="23"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="25"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="25"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="25"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="25"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="25"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="25"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="25"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="25"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="25"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="25"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="23"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="23"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="25"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="25"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="25"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="25"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="25"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="25"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="25"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="25"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="25"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="25"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="23"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="23"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="25"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="25"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="25"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="25"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="25"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="25"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="25"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="25"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="25"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="25"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="23"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="23"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="25"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="25"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="25"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="25"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="25"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="25"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="25"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="25"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="25"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="25"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="23"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="23"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="25"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="25"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="25"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="25"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="25"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="25"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="25"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="25"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="25"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="25"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="23"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="23"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="25"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="25"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="25"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="25"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="25"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="25"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="25"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="25"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="25"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="25"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B4" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2389,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="29" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C600))</f>
         <v>46002</v>
       </c>
     </row>
@@ -2404,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2504,7 +1153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2603,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2693,7 +1342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2764,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2835,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2926,7 +1575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3064,7 +1713,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B2, C2, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B2, C2, holiday!A$2:A$500)</f>
         <v>53</v>
       </c>
       <c r="G2" s="15" t="n">
@@ -3080,7 +1729,7 @@
         <v>0.25</v>
       </c>
       <c r="J2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K2" s="2" t="b">
@@ -3110,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B3, C3, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B3, C3, holiday!A$2:A$500)</f>
         <v>6</v>
       </c>
       <c r="G3" s="15" t="n">
@@ -3126,7 +1775,7 @@
         <v>1.75</v>
       </c>
       <c r="J3" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K3" s="2" t="b">
@@ -3156,7 +1805,7 @@
         <v>81</v>
       </c>
       <c r="F4" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B4, C4, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B4, C4, holiday!A$2:A$500)</f>
         <v>57</v>
       </c>
       <c r="G4" s="15" t="n">
@@ -3172,7 +1821,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K4" s="2" t="b">
@@ -3202,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B5, C5, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B5, C5, holiday!A$2:A$500)</f>
         <v>7</v>
       </c>
       <c r="G5" s="15" t="n">
@@ -3218,7 +1867,7 @@
         <v>2.25</v>
       </c>
       <c r="J5" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K5" s="2" t="b">
@@ -3248,7 +1897,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B6, C6, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B6, C6, holiday!A$2:A$500)</f>
         <v>39</v>
       </c>
       <c r="G6" s="15" t="n">
@@ -3264,7 +1913,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K6" s="2" t="b">
@@ -3294,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B7, C7, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B7, C7, holiday!A$2:A$500)</f>
         <v>4</v>
       </c>
       <c r="G7" s="15" t="n">
@@ -3310,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="J7" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K7" s="2" t="b">
@@ -3497,11 +2146,11 @@
         <v>13</v>
       </c>
       <c r="C2" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3513,11 +2162,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3529,11 +2178,11 @@
         <v>15</v>
       </c>
       <c r="C4" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3545,11 +2194,11 @@
         <v>14</v>
       </c>
       <c r="C5" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D5" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3561,11 +2210,11 @@
         <v>17</v>
       </c>
       <c r="C6" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3577,11 +2226,11 @@
         <v>16</v>
       </c>
       <c r="C7" s="19" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3722,11 +2371,11 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B2)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B2)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -3754,11 +2403,11 @@
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B3)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B3)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
@@ -3786,11 +2435,11 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B4)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B4)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -3818,11 +2467,11 @@
         <v>2.25</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B5)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B5)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -3850,11 +2499,11 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B6)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B6)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -3882,11 +2531,11 @@
         <v>2.75</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B7)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B7)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -4445,401 +3094,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5294,402 +3548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5886,7 +3745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6249,4 +4108,1353 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F181"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="23"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="23"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="23"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="23"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="23"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="23"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="23"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="23"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="23"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="23"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="23"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="23"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="23"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="23"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="23"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="23"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="23"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="23"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="23"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="23"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="23"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="23"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="25"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="25"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="23"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="23"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="25"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="25"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="25"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="25"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="25"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="25"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="25"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="25"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="25"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="25"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="23"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="23"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="25"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="25"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="25"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="25"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="25"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="25"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="25"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="25"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="25"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="25"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="23"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="23"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="25"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="25"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="25"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="25"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="25"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="25"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="25"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="25"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="25"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="25"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="23"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="23"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="25"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="25"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="25"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="25"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="25"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="25"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="25"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="25"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="25"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="25"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="23"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="23"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="25"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="25"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="25"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="25"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="25"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="25"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="25"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="25"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="25"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="25"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="23"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="23"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="25"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="25"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="25"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="25"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="25"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="25"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="25"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="25"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="25"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="25"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="23"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="23"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="25"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="25"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="25"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="25"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="25"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="25"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="25"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="25"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="25"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="25"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="23"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="23"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="25"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="25"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="25"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="25"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="25"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="25"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="25"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="25"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="25"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="25"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="23"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="23"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="25"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="25"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="25"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="25"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="25"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="25"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="25"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="25"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="25"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="25"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="23"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="23"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="25"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="25"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="25"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="25"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="25"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="25"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="25"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="25"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="25"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="25"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="23"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="23"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="25"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="25"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="25"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="25"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="25"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="25"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="25"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="25"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="25"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="25"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="23"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="23"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="25"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="25"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="25"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="25"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="25"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="25"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="25"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="25"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="25"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="25"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1582,7 +1582,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5275,7 +5275,7 @@
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -375,10 +375,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -944,7 +950,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,10 +1004,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1009,8 +1015,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1023,8 +1029,11 @@
       <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,9 +1044,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="29" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="29" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C600))</f>
         <v>46002</v>
       </c>
@@ -1061,7 +1073,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,13 +1088,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1091,19 +1103,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,14 +1133,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1138,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1173,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,16 +1184,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1190,19 +1202,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,14 +1232,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1237,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1260,7 +1272,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,16 +1283,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1289,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,7 +1325,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="6" t="n">
@@ -1324,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1362,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1361,25 +1373,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1405,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.9</v>
@@ -1421,7 +1433,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,25 +1444,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,10 +1476,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>4</v>
@@ -1492,7 +1504,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1505,34 +1517,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,16 +1558,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.5</v>
@@ -1582,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1594,19 +1606,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,7 +1654,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,7 +2123,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,7 +2318,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="D1:D2 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3097,7 +3109,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3556,7 +3568,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3753,7 +3765,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4118,7 +4130,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5276,7 +5288,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -387,6 +388,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -396,6 +400,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -403,12 +413,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -635,7 +639,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,10 +761,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,7 +950,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,31 +1070,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1102,65 +1101,47 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1170,87 +1151,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1269,79 +1205,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1359,16 +1258,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,43 +1275,16 @@
         <v>55</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1430,59 +1302,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1501,79 +1355,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1592,46 +1408,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1654,7 +1525,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2123,7 +1994,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,7 +2189,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="D1:D2 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,7 +2980,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3568,7 +3439,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3765,7 +3636,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4130,7 +4001,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5288,7 +5159,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
+++ b/ampl-data-input-excel/27-SA-Justin/27-SA-Justin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -950,7 +950,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1260,8 +1260,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="D1:D2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2189,7 +2189,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="D1:D2 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2980,7 +2980,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3439,7 +3439,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3636,7 +3636,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5159,7 +5159,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
